--- a/resource/国际出口带宽.xlsx
+++ b/resource/国际出口带宽.xlsx
@@ -1,26 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hryz\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{163B4814-364F-4E0E-AC5C-E342B87A011B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="315" yWindow="885" windowWidth="12315" windowHeight="11925" xr2:uid="{B2637888-BDE2-436D-A699-5E83FA80A7F4}"/>
+    <workbookView windowWidth="20090" windowHeight="10900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -48,42 +37,28 @@
     <t>合计/Mbps</t>
   </si>
   <si>
-    <t>增长率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>增长量</t>
   </si>
   <si>
-    <t>增长量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>增长率</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="0.0%"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -92,25 +67,173 @@
       <sz val="16"/>
       <color rgb="FF333333"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="16"/>
       <color rgb="FF333333"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="16"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -129,8 +252,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -170,17 +479,6 @@
       <left style="medium">
         <color rgb="FFDFE2E5"/>
       </left>
-      <right style="medium">
-        <color rgb="FFDFE2E5"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFDFE2E5"/>
-      </left>
       <right/>
       <top style="medium">
         <color rgb="FFDFE2E5"/>
@@ -214,74 +512,362 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="百分比" xfId="1" builtinId="5"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -330,7 +916,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -363,26 +949,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -415,23 +984,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -573,63 +1125,58 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23D5459E-3E0E-41BB-BEFF-F129BE2541AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="4" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.25" customWidth="1"/>
-    <col min="9" max="9" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="13.1272727272727" customWidth="1"/>
+    <col min="5" max="5" width="12.4545454545455" customWidth="1"/>
+    <col min="6" max="6" width="12.2727272727273" customWidth="1"/>
+    <col min="7" max="8" width="15.2545454545455" customWidth="1"/>
+    <col min="9" max="9" width="10.1272727272727" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="41.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="21.75" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="2" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" ht="21.75" spans="1:9">
+      <c r="A2" s="3">
         <v>2020.12</v>
       </c>
       <c r="B2" s="4">
@@ -640,7 +1187,7 @@
       <c r="E2" s="7">
         <v>114688</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="8">
         <v>153600</v>
       </c>
       <c r="G2" s="7">
@@ -650,13 +1197,13 @@
         <f>G2-G3</f>
         <v>2683646</v>
       </c>
-      <c r="I2" s="8">
-        <f>G2/G3-1</f>
-        <v>0.30400109835449585</v>
+      <c r="I2" s="15">
+        <f t="shared" ref="I2:I8" si="0">G2/G3-1</f>
+        <v>0.304001098354496</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+    <row r="3" ht="21.75" spans="1:9">
+      <c r="A3" s="9">
         <v>2019.12</v>
       </c>
       <c r="B3" s="4">
@@ -664,83 +1211,83 @@
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="9">
+      <c r="E3" s="10">
         <v>114688</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="10">
         <v>61440</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="10">
         <v>8827751</v>
       </c>
       <c r="H3" s="7">
-        <f t="shared" ref="H3:H11" si="0">G3-G4</f>
+        <f t="shared" ref="H3:H11" si="1">G3-G4</f>
         <v>1456013</v>
       </c>
-      <c r="I3" s="10">
-        <f>G3/G4-1</f>
-        <v>0.19751285246437145</v>
+      <c r="I3" s="16">
+        <f t="shared" si="0"/>
+        <v>0.197512852464371</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" ht="21.75" spans="1:10">
+      <c r="A4" s="3">
         <v>2018.12</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="9">
+      <c r="F4" s="10">
         <v>61440</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="11">
         <v>7371738</v>
       </c>
       <c r="H4" s="7">
+        <f t="shared" si="1"/>
+        <v>51558</v>
+      </c>
+      <c r="I4" s="15">
         <f t="shared" si="0"/>
-        <v>51558</v>
-      </c>
-      <c r="I4" s="8">
-        <f>G4/G5-1</f>
-        <v>7.043269427800869E-3</v>
+        <v>0.00704326942780087</v>
       </c>
       <c r="J4">
         <v>8946570</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+    <row r="5" ht="21.75" spans="1:9">
+      <c r="A5" s="9">
         <v>2017.12</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="10">
         <v>3625830</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="10">
         <v>2081662</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="10">
         <v>1498000</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="10">
         <v>53248</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="10">
         <v>61440</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="10">
         <v>7320180</v>
       </c>
       <c r="H5" s="7">
+        <f t="shared" si="1"/>
+        <v>679889</v>
+      </c>
+      <c r="I5" s="16">
         <f t="shared" si="0"/>
-        <v>679889</v>
-      </c>
-      <c r="I5" s="10">
-        <f>G5/G6-1</f>
-        <v>0.10238843448276591</v>
+        <v>0.102388434482766</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+    <row r="6" ht="21.75" spans="1:9">
+      <c r="A6" s="3">
         <v>2016.12</v>
       </c>
       <c r="B6" s="7"/>
@@ -752,37 +1299,37 @@
         <v>6640291</v>
       </c>
       <c r="H6" s="7">
+        <f t="shared" si="1"/>
+        <v>1248175</v>
+      </c>
+      <c r="I6" s="15">
         <f t="shared" si="0"/>
-        <v>1248175</v>
-      </c>
-      <c r="I6" s="8">
-        <f>G6/G7-1</f>
-        <v>0.2314814814814814</v>
+        <v>0.231481481481481</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+    <row r="7" ht="21.75" spans="1:9">
+      <c r="A7" s="9">
         <v>2015.12</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9">
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10">
         <v>5392116</v>
       </c>
       <c r="H7" s="7">
+        <f t="shared" si="1"/>
+        <v>1273453</v>
+      </c>
+      <c r="I7" s="16">
         <f t="shared" si="0"/>
-        <v>1273453</v>
-      </c>
-      <c r="I7" s="10">
-        <f>G7/G8-1</f>
-        <v>0.30919087092097608</v>
+        <v>0.309190870920976</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="8" ht="21.75" spans="1:9">
+      <c r="A8" s="3">
         <v>2014.12</v>
       </c>
       <c r="B8" s="7"/>
@@ -794,85 +1341,101 @@
         <v>4118663</v>
       </c>
       <c r="H8" s="12">
+        <f t="shared" si="1"/>
+        <v>711839</v>
+      </c>
+      <c r="I8" s="15">
         <f t="shared" si="0"/>
-        <v>711839</v>
-      </c>
-      <c r="I8" s="8">
-        <f>G8/G9-1</f>
-        <v>0.20894504676496339</v>
+        <v>0.208945046764963</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+    <row r="9" ht="21.75" spans="1:9">
+      <c r="A9" s="3">
         <v>2013.12</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
       <c r="G9" s="12">
         <v>3406824</v>
       </c>
       <c r="H9" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1507032</v>
       </c>
-      <c r="I9" s="8">
-        <f t="shared" ref="I9:I11" si="1">G9/G10-1</f>
-        <v>0.79326157810960352</v>
+      <c r="I9" s="15">
+        <f t="shared" ref="I9:I11" si="2">G9/G10-1</f>
+        <v>0.793261578109604</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+    <row r="10" ht="21.75" spans="1:9">
+      <c r="A10" s="9">
         <v>2012.12</v>
       </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
       <c r="G10" s="12">
         <v>1899792</v>
       </c>
       <c r="H10" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>510263</v>
       </c>
-      <c r="I10" s="8">
-        <f t="shared" si="1"/>
-        <v>0.3672201155931254</v>
+      <c r="I10" s="15">
+        <f t="shared" si="2"/>
+        <v>0.367220115593125</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+    <row r="11" ht="21.75" spans="1:9">
+      <c r="A11" s="3">
         <v>2011.12</v>
       </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
       <c r="G11" s="12">
         <v>1389529</v>
       </c>
       <c r="H11" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>290572</v>
       </c>
-      <c r="I11" s="8">
-        <f t="shared" si="1"/>
-        <v>0.26440706961236882</v>
+      <c r="I11" s="15">
+        <f t="shared" si="2"/>
+        <v>0.264407069612369</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+    <row r="12" ht="21.75" spans="1:9">
+      <c r="A12" s="3">
         <v>2010.12</v>
       </c>
-      <c r="G12" s="14">
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="12">
         <v>1098957</v>
       </c>
-      <c r="I12">
+      <c r="H12" s="14"/>
+      <c r="I12" s="14">
         <v>26.9</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+    <row r="13" ht="21.75" spans="1:1">
+      <c r="A13" s="9">
         <v>2009.12</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+    <row r="14" ht="21.75" spans="1:1">
+      <c r="A14" s="3">
         <v>2008.12</v>
       </c>
     </row>
@@ -881,8 +1444,8 @@
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/resource/国际出口带宽.xlsx
+++ b/resource/国际出口带宽.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20090" windowHeight="10900"/>
+    <workbookView windowWidth="21870" windowHeight="13870"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,13 +48,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0%"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0%"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,59 +83,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -150,9 +113,48 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -164,9 +166,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,52 +182,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -254,49 +247,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,13 +397,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,97 +415,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,20 +431,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -483,9 +476,7 @@
       <top style="medium">
         <color rgb="FFDFE2E5"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FFDFE2E5"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -494,9 +485,7 @@
       <top style="medium">
         <color rgb="FFDFE2E5"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FFDFE2E5"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -507,8 +496,52 @@
       <top style="medium">
         <color rgb="FFDFE2E5"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDFE2E5"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFDFE2E5"/>
+      </top>
       <bottom style="medium">
         <color rgb="FFDFE2E5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFDFE2E5"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDFE2E5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFDFE2E5"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDFE2E5"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDFE2E5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,9 +563,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,15 +611,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -576,32 +626,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -615,152 +639,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -773,13 +797,25 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -799,9 +835,6 @@
     </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1131,19 +1164,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="4" width="13.1272727272727" customWidth="1"/>
-    <col min="5" max="5" width="12.4545454545455" customWidth="1"/>
-    <col min="6" max="6" width="12.2727272727273" customWidth="1"/>
-    <col min="7" max="8" width="15.2545454545455" customWidth="1"/>
-    <col min="9" max="9" width="10.1272727272727" customWidth="1"/>
+    <col min="1" max="1" width="14.7272727272727" customWidth="1"/>
+    <col min="2" max="4" width="12.2727272727273" customWidth="1"/>
+    <col min="5" max="6" width="10.6363636363636" customWidth="1"/>
+    <col min="7" max="7" width="14.7272727272727" customWidth="1"/>
+    <col min="8" max="8" width="12.3636363636364" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
+    <col min="10" max="10" width="8.54545454545454" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="21.75" spans="1:9">
@@ -1177,272 +1212,285 @@
     </row>
     <row r="2" ht="21.75" spans="1:9">
       <c r="A2" s="3">
-        <v>2020.12</v>
-      </c>
-      <c r="B2" s="4">
-        <v>11243109</v>
-      </c>
+        <v>2021.12</v>
+      </c>
+      <c r="B2" s="4"/>
       <c r="C2" s="5"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="7">
-        <v>114688</v>
-      </c>
-      <c r="F2" s="8">
-        <v>153600</v>
-      </c>
-      <c r="G2" s="7">
-        <v>11511397</v>
-      </c>
-      <c r="H2" s="7">
-        <f>G2-G3</f>
-        <v>2683646</v>
-      </c>
-      <c r="I2" s="15">
-        <f t="shared" ref="I2:I8" si="0">G2/G3-1</f>
-        <v>0.304001098354496</v>
-      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
     </row>
     <row r="3" ht="21.75" spans="1:9">
-      <c r="A3" s="9">
+      <c r="A3" s="3">
+        <v>2020.12</v>
+      </c>
+      <c r="B3" s="8">
+        <v>11243109</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11">
+        <v>114688</v>
+      </c>
+      <c r="F3" s="12">
+        <v>153600</v>
+      </c>
+      <c r="G3" s="11">
+        <v>11511397</v>
+      </c>
+      <c r="H3" s="11">
+        <f>G3-G4</f>
+        <v>2683646</v>
+      </c>
+      <c r="I3" s="18">
+        <f t="shared" ref="I3:I9" si="0">G3/G4-1</f>
+        <v>0.304001098354496</v>
+      </c>
+    </row>
+    <row r="4" ht="21.75" spans="1:9">
+      <c r="A4" s="13">
         <v>2019.12</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B4" s="8">
         <v>8651623</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="10">
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="14">
         <v>114688</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F4" s="14">
         <v>61440</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G4" s="14">
         <v>8827751</v>
       </c>
-      <c r="H3" s="7">
-        <f t="shared" ref="H3:H11" si="1">G3-G4</f>
+      <c r="H4" s="11">
+        <f t="shared" ref="H4:H12" si="1">G4-G5</f>
         <v>1456013</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I4" s="19">
         <f t="shared" si="0"/>
         <v>0.197512852464371</v>
       </c>
     </row>
-    <row r="4" ht="21.75" spans="1:10">
-      <c r="A4" s="3">
+    <row r="5" ht="21.75" spans="1:10">
+      <c r="A5" s="3">
         <v>2018.12</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="10">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="14">
         <v>61440</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G5" s="15">
         <v>7371738</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H5" s="11">
         <f t="shared" si="1"/>
         <v>51558</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I5" s="18">
         <f t="shared" si="0"/>
         <v>0.00704326942780087</v>
       </c>
-      <c r="J4">
+      <c r="J5">
         <v>8946570</v>
       </c>
     </row>
-    <row r="5" ht="21.75" spans="1:9">
-      <c r="A5" s="9">
+    <row r="6" ht="21.75" spans="1:9">
+      <c r="A6" s="13">
         <v>2017.12</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B6" s="14">
         <v>3625830</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C6" s="14">
         <v>2081662</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D6" s="14">
         <v>1498000</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E6" s="14">
         <v>53248</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F6" s="14">
         <v>61440</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G6" s="14">
         <v>7320180</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H6" s="11">
         <f t="shared" si="1"/>
         <v>679889</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I6" s="19">
         <f t="shared" si="0"/>
         <v>0.102388434482766</v>
       </c>
     </row>
-    <row r="6" ht="21.75" spans="1:9">
-      <c r="A6" s="3">
+    <row r="7" ht="21.75" spans="1:9">
+      <c r="A7" s="3">
         <v>2016.12</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7">
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11">
         <v>6640291</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H7" s="11">
         <f t="shared" si="1"/>
         <v>1248175</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I7" s="18">
         <f t="shared" si="0"/>
         <v>0.231481481481481</v>
       </c>
     </row>
-    <row r="7" ht="21.75" spans="1:9">
-      <c r="A7" s="9">
+    <row r="8" ht="21.75" spans="1:9">
+      <c r="A8" s="13">
         <v>2015.12</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10">
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14">
         <v>5392116</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H8" s="11">
         <f t="shared" si="1"/>
         <v>1273453</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I8" s="19">
         <f t="shared" si="0"/>
         <v>0.309190870920976</v>
-      </c>
-    </row>
-    <row r="8" ht="21.75" spans="1:9">
-      <c r="A8" s="3">
-        <v>2014.12</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7">
-        <v>4118663</v>
-      </c>
-      <c r="H8" s="12">
-        <f t="shared" si="1"/>
-        <v>711839</v>
-      </c>
-      <c r="I8" s="15">
-        <f t="shared" si="0"/>
-        <v>0.208945046764963</v>
       </c>
     </row>
     <row r="9" ht="21.75" spans="1:9">
       <c r="A9" s="3">
+        <v>2014.12</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11">
+        <v>4118663</v>
+      </c>
+      <c r="H9" s="16">
+        <f t="shared" si="1"/>
+        <v>711839</v>
+      </c>
+      <c r="I9" s="18">
+        <f t="shared" si="0"/>
+        <v>0.208945046764963</v>
+      </c>
+    </row>
+    <row r="10" ht="21.75" spans="1:9">
+      <c r="A10" s="3">
         <v>2013.12</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="12">
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="16">
         <v>3406824</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H10" s="16">
         <f t="shared" si="1"/>
         <v>1507032</v>
       </c>
-      <c r="I9" s="15">
-        <f t="shared" ref="I9:I11" si="2">G9/G10-1</f>
+      <c r="I10" s="18">
+        <f t="shared" ref="I10:I12" si="2">G10/G11-1</f>
         <v>0.793261578109604</v>
       </c>
     </row>
-    <row r="10" ht="21.75" spans="1:9">
-      <c r="A10" s="9">
+    <row r="11" ht="21.75" spans="1:9">
+      <c r="A11" s="13">
         <v>2012.12</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="12">
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="16">
         <v>1899792</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H11" s="16">
         <f t="shared" si="1"/>
         <v>510263</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I11" s="18">
         <f t="shared" si="2"/>
         <v>0.367220115593125</v>
-      </c>
-    </row>
-    <row r="11" ht="21.75" spans="1:9">
-      <c r="A11" s="3">
-        <v>2011.12</v>
-      </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="12">
-        <v>1389529</v>
-      </c>
-      <c r="H11" s="12">
-        <f t="shared" si="1"/>
-        <v>290572</v>
-      </c>
-      <c r="I11" s="15">
-        <f t="shared" si="2"/>
-        <v>0.264407069612369</v>
       </c>
     </row>
     <row r="12" ht="21.75" spans="1:9">
       <c r="A12" s="3">
+        <v>2011.12</v>
+      </c>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="16">
+        <v>1389529</v>
+      </c>
+      <c r="H12" s="16">
+        <f t="shared" si="1"/>
+        <v>290572</v>
+      </c>
+      <c r="I12" s="18">
+        <f t="shared" si="2"/>
+        <v>0.264407069612369</v>
+      </c>
+    </row>
+    <row r="13" ht="21.75" spans="1:9">
+      <c r="A13" s="3">
         <v>2010.12</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="12">
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="16">
         <v>1098957</v>
       </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14">
+      <c r="H13" s="17"/>
+      <c r="I13" s="17">
         <v>26.9</v>
-      </c>
-    </row>
-    <row r="13" ht="21.75" spans="1:1">
-      <c r="A13" s="9">
-        <v>2009.12</v>
       </c>
     </row>
     <row r="14" ht="21.75" spans="1:1">
-      <c r="A14" s="3">
+      <c r="A14" s="13">
+        <v>2009.12</v>
+      </c>
+    </row>
+    <row r="15" ht="21.75" spans="1:1">
+      <c r="A15" s="3">
         <v>2008.12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/resource/国际出口带宽.xlsx
+++ b/resource/国际出口带宽.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21870" windowHeight="13870"/>
+    <workbookView windowWidth="19720" windowHeight="13380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,11 +48,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0%"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ \￥* #,##0.00_ ;_ \￥* \-#,##0.00_ ;_ \￥* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ \￥* #,##0_ ;_ \￥* \-#,##0_ ;_ \￥* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.0%"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -83,22 +83,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -112,44 +118,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -175,6 +143,45 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -182,16 +189,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,22 +212,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,19 +247,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,7 +367,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,156 +379,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="17">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -441,98 +441,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFDFE2E5"/>
+      <left style="thin">
+        <color auto="1"/>
       </left>
-      <right style="medium">
-        <color rgb="FFDFE2E5"/>
+      <right style="thin">
+        <color auto="1"/>
       </right>
-      <top style="medium">
-        <color rgb="FFDFE2E5"/>
+      <top style="thin">
+        <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFDFE2E5"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFDFE2E5"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFDFE2E5"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFDFE2E5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFDFE2E5"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFDFE2E5"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FFDFE2E5"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFDFE2E5"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFDFE2E5"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFDFE2E5"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFDFE2E5"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFDFE2E5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FFDFE2E5"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFDFE2E5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFDFE2E5"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFDFE2E5"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFDFE2E5"/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,6 +461,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -563,11 +491,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,48 +545,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -639,7 +558,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -648,202 +567,178 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -854,12 +749,12 @@
     <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
     <cellStyle name="Currency" xfId="5" builtinId="4"/>
     <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
     <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
     <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
@@ -1167,22 +1062,23 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="14.7272727272727" customWidth="1"/>
-    <col min="2" max="4" width="12.2727272727273" customWidth="1"/>
-    <col min="5" max="6" width="10.6363636363636" customWidth="1"/>
-    <col min="7" max="7" width="14.7272727272727" customWidth="1"/>
-    <col min="8" max="8" width="12.3636363636364" customWidth="1"/>
-    <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="8.54545454545454" customWidth="1"/>
+    <col min="1" max="1" width="14.7272727272727" style="1" customWidth="1"/>
+    <col min="2" max="4" width="12.2727272727273" style="1" customWidth="1"/>
+    <col min="5" max="6" width="10.6363636363636" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7272727272727" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.3636363636364" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.54545454545454" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21.75" spans="1:9">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="21" spans="1:9">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1210,282 +1106,298 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="21.75" spans="1:9">
+    <row r="2" ht="21" spans="1:9">
       <c r="A2" s="3">
         <v>2021.12</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
-    <row r="3" ht="21.75" spans="1:9">
+    <row r="3" ht="21" spans="1:9">
       <c r="A3" s="3">
         <v>2020.12</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="3">
         <v>11243109</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3">
         <v>114688</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="4">
         <v>153600</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="3">
         <v>11511397</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="3">
         <f>G3-G4</f>
         <v>2683646</v>
       </c>
-      <c r="I3" s="18">
+      <c r="I3" s="10">
         <f t="shared" ref="I3:I9" si="0">G3/G4-1</f>
         <v>0.304001098354496</v>
       </c>
     </row>
-    <row r="4" ht="21.75" spans="1:9">
-      <c r="A4" s="13">
+    <row r="4" ht="21" spans="1:9">
+      <c r="A4" s="5">
         <v>2019.12</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="3">
         <v>8651623</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="14">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="5">
         <v>114688</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="5">
         <v>61440</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="5">
         <v>8827751</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="3">
         <f t="shared" ref="H4:H12" si="1">G4-G5</f>
         <v>1456013</v>
       </c>
-      <c r="I4" s="19">
+      <c r="I4" s="11">
         <f t="shared" si="0"/>
         <v>0.197512852464371</v>
       </c>
     </row>
-    <row r="5" ht="21.75" spans="1:10">
+    <row r="5" ht="21" spans="1:10">
       <c r="A5" s="3">
         <v>2018.12</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="14">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="5">
         <v>61440</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="6">
         <v>7371738</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="3">
         <f t="shared" si="1"/>
         <v>51558</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5" s="10">
         <f t="shared" si="0"/>
         <v>0.00704326942780087</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="1">
         <v>8946570</v>
       </c>
     </row>
-    <row r="6" ht="21.75" spans="1:9">
-      <c r="A6" s="13">
+    <row r="6" ht="21" spans="1:9">
+      <c r="A6" s="5">
         <v>2017.12</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="5">
         <v>3625830</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="5">
         <v>2081662</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="5">
         <v>1498000</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="5">
         <v>53248</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="5">
         <v>61440</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="5">
         <v>7320180</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="3">
         <f t="shared" si="1"/>
         <v>679889</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I6" s="11">
         <f t="shared" si="0"/>
         <v>0.102388434482766</v>
       </c>
     </row>
-    <row r="7" ht="21.75" spans="1:9">
+    <row r="7" ht="21" spans="1:9">
       <c r="A7" s="3">
         <v>2016.12</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3">
         <v>6640291</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="3">
         <f t="shared" si="1"/>
         <v>1248175</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7" s="10">
         <f t="shared" si="0"/>
         <v>0.231481481481481</v>
       </c>
     </row>
-    <row r="8" ht="21.75" spans="1:9">
-      <c r="A8" s="13">
+    <row r="8" ht="21" spans="1:9">
+      <c r="A8" s="5">
         <v>2015.12</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5">
         <v>5392116</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="3">
         <f t="shared" si="1"/>
         <v>1273453</v>
       </c>
-      <c r="I8" s="19">
+      <c r="I8" s="11">
         <f t="shared" si="0"/>
         <v>0.309190870920976</v>
       </c>
     </row>
-    <row r="9" ht="21.75" spans="1:9">
+    <row r="9" ht="21" spans="1:9">
       <c r="A9" s="3">
         <v>2014.12</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3">
         <v>4118663</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="7">
         <f t="shared" si="1"/>
         <v>711839</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="10">
         <f t="shared" si="0"/>
         <v>0.208945046764963</v>
       </c>
     </row>
-    <row r="10" ht="21.75" spans="1:9">
+    <row r="10" ht="21" spans="1:9">
       <c r="A10" s="3">
         <v>2013.12</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="16">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="7">
         <v>3406824</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="7">
         <f t="shared" si="1"/>
         <v>1507032</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10" s="10">
         <f t="shared" ref="I10:I12" si="2">G10/G11-1</f>
         <v>0.793261578109604</v>
       </c>
     </row>
-    <row r="11" ht="21.75" spans="1:9">
-      <c r="A11" s="13">
+    <row r="11" ht="21" spans="1:9">
+      <c r="A11" s="5">
         <v>2012.12</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="16">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="7">
         <v>1899792</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="7">
         <f t="shared" si="1"/>
         <v>510263</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="10">
         <f t="shared" si="2"/>
         <v>0.367220115593125</v>
       </c>
     </row>
-    <row r="12" ht="21.75" spans="1:9">
+    <row r="12" ht="21" spans="1:9">
       <c r="A12" s="3">
         <v>2011.12</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="16">
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="7">
         <v>1389529</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12" s="7">
         <f t="shared" si="1"/>
         <v>290572</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="10">
         <f t="shared" si="2"/>
         <v>0.264407069612369</v>
       </c>
     </row>
-    <row r="13" ht="21.75" spans="1:9">
+    <row r="13" ht="21" spans="1:9">
       <c r="A13" s="3">
         <v>2010.12</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="16">
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="7">
         <v>1098957</v>
       </c>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17">
+      <c r="H13" s="8"/>
+      <c r="I13" s="8">
         <v>26.9</v>
       </c>
     </row>
-    <row r="14" ht="21.75" spans="1:1">
-      <c r="A14" s="13">
+    <row r="14" ht="21" spans="1:9">
+      <c r="A14" s="5">
         <v>2009.12</v>
       </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
     </row>
-    <row r="15" ht="21.75" spans="1:1">
+    <row r="15" ht="21" spans="1:9">
       <c r="A15" s="3">
         <v>2008.12</v>
       </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
